--- a/Crm_info.xlsx
+++ b/Crm_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khambarde\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95659686-E888-47F1-8D5C-AE056C2A5A9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC14250-F188-4943-AA38-A86EDB84C154}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4425" xr2:uid="{C4F14659-1950-46D6-8A62-5889ED16F98A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>Category</t>
   </si>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>Oro CRM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.JavaScript 
-2.PHP </t>
   </si>
   <si>
     <t>1.PHP</t>
@@ -988,7 +984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EB6AAF-FCB9-454A-9677-77F0752D140D}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1035,34 +1033,34 @@
         <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="75" x14ac:dyDescent="0.3">
@@ -1079,28 +1077,28 @@
         <v>41</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="112.5" x14ac:dyDescent="0.3">
@@ -1109,40 +1107,38 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="F3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="75" x14ac:dyDescent="0.3">
@@ -1156,28 +1152,28 @@
         <v>40</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1197,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>16</v>
@@ -1220,22 +1216,22 @@
         <v>18</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1246,13 +1242,13 @@
         <v>20</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1263,10 +1259,10 @@
         <v>22</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="56.25" x14ac:dyDescent="0.3">
@@ -1280,13 +1276,13 @@
         <v>28</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1317,31 +1313,31 @@
         <v>42</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="277.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1362,22 +1358,22 @@
         <v>43</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="303" customHeight="1" x14ac:dyDescent="0.3">
@@ -1398,36 +1394,36 @@
         <v>38</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="11:14" ht="37.5" x14ac:dyDescent="0.3">
       <c r="N17" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="11:14" x14ac:dyDescent="0.3">
